--- a/public/assets/ProductFokusImport.xlsx
+++ b/public/assets/ProductFokusImport.xlsx
@@ -1,5 +1,95 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\sasa_mtcgtc\public\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>CHANNEL</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -42,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -77,7 +167,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,6 +350,37 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/assets/ProductFokusImport.xlsx
+++ b/public/assets/ProductFokusImport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CHANNEL</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>AREA</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>UNTIL</t>
   </si>
 </sst>
 </file>
@@ -44,6 +50,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,10 +362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -366,7 +373,7 @@
     <col min="1" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -376,8 +383,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
   </sheetData>
